--- a/ESPL - Weekly Timesheet Template.xlsx
+++ b/ESPL - Weekly Timesheet Template.xlsx
@@ -95,7 +95,7 @@
     <t>Remarks:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -641,6 +641,36 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -671,41 +701,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="12"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1074,11 +1074,11 @@
       <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="27"/>
       <c r="F1" s="28"/>
     </row>
@@ -1094,27 +1094,27 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="6" t="s">
@@ -1128,10 +1128,10 @@
         <f>B5+6</f>
         <v>6</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A6" s="10" t="s">
@@ -1140,10 +1140,10 @@
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
@@ -1156,8 +1156,8 @@
         <v>11</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
     </row>
@@ -1166,8 +1166,8 @@
         <v>12</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
@@ -1176,8 +1176,8 @@
         <v>13</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
     </row>
@@ -1186,8 +1186,8 @@
         <v>14</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
@@ -1196,8 +1196,8 @@
         <v>15</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
     </row>
@@ -1208,10 +1208,10 @@
       <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="20">
         <v>0</v>
       </c>
@@ -1224,20 +1224,20 @@
       <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="8">
         <f>SUM(E7:E13)</f>
         <v>0</v>
@@ -1259,14 +1259,20 @@
       <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="C12:D12"/>
@@ -1277,12 +1283,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
